--- a/TestReport/data.xlsx
+++ b/TestReport/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinaygopinath/IdeaProjects/HashMapExcelRead/TestReport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F58B1D-13C2-7044-9543-C3AC13C937A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DB2290-57C4-474F-B7ED-A4DD29CC3C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
   <si>
     <t>https://stanfordcard--sit.lightning.force.com/lightning/page/home</t>
   </si>
@@ -218,6 +218,12 @@
     <t>0217651662</t>
   </si>
   <si>
+    <t>0217651688</t>
+  </si>
+  <si>
+    <t>0217651689</t>
+  </si>
+  <si>
     <t>0217651690</t>
   </si>
   <si>
@@ -227,7 +233,7 @@
     <t>0217651692</t>
   </si>
   <si>
-    <t>0217651693</t>
+    <t>er</t>
   </si>
   <si>
     <t>ertyg</t>
@@ -263,16 +269,10 @@
     <t>Testcase_453182</t>
   </si>
   <si>
-    <t>er43</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>FAIL</t>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -280,7 +280,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,18 +349,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Consolas"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -404,7 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -432,8 +420,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -835,7 +822,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -907,9 +894,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>58</v>
+    <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B2" t="s">
         <v>66</v>
@@ -918,7 +905,7 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -938,7 +925,7 @@
       <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -953,13 +940,13 @@
       <c r="O2" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>59</v>
+      <c r="A3" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
@@ -968,7 +955,7 @@
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
@@ -986,30 +973,30 @@
         <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>35</v>
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>60</v>
+      <c r="A4" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -1018,7 +1005,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
@@ -1058,8 +1045,8 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>61</v>
+      <c r="A5" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
@@ -1068,13 +1055,13 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
         <v>22</v>
@@ -1108,8 +1095,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>62</v>
+      <c r="A6" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -1124,7 +1111,7 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
         <v>22</v>
@@ -1158,8 +1145,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>63</v>
+      <c r="A7" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
@@ -1168,13 +1155,13 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" t="s">
-        <v>52</v>
+      <c r="F7">
+        <v>6565656656</v>
       </c>
       <c r="G7" t="s">
         <v>22</v>
@@ -1185,8 +1172,8 @@
       <c r="I7" t="s">
         <v>26</v>
       </c>
-      <c r="J7" t="s">
-        <v>48</v>
+      <c r="J7">
+        <v>8787787878</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>28</v>

--- a/TestReport/data.xlsx
+++ b/TestReport/data.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinaygopinath/IdeaProjects/HashMapExcelRead/TestReport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DB2290-57C4-474F-B7ED-A4DD29CC3C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42798D50-7BDE-314F-80DF-80D2A489E3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2680" yWindow="-16580" windowWidth="25600" windowHeight="14500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Life Events" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Life Events" sheetId="2" r:id="rId3"/>
+    <sheet name="Engaggement" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="76">
   <si>
     <t>https://stanfordcard--sit.lightning.force.com/lightning/page/home</t>
   </si>
@@ -269,10 +271,34 @@
     <t>Testcase_453182</t>
   </si>
   <si>
+    <t>textfield</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>PASS1</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -818,11 +844,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAC2E05-22D6-C748-BD7B-37CCF897C951}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDF005C-8D08-4053-A9FB-125982CE2908}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -833,18 +871,19 @@
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="8.5" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="18.5" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.1640625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.5" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="18.5" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.5" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="18.5" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.5" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.5" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="18.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="13.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="18.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>37</v>
       </c>
@@ -864,42 +903,45 @@
         <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -914,42 +956,45 @@
         <v>49</v>
       </c>
       <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -964,16 +1009,16 @@
         <v>50</v>
       </c>
       <c r="G3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>34</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>59</v>
       </c>
       <c r="K3" t="s">
         <v>59</v>
@@ -993,13 +1038,16 @@
       <c r="P3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+      <c r="Q3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -1014,42 +1062,45 @@
         <v>51</v>
       </c>
       <c r="G4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -1064,42 +1115,45 @@
         <v>52</v>
       </c>
       <c r="G5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" t="s">
         <v>22</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>24</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>26</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="16" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -1114,42 +1168,45 @@
         <v>53</v>
       </c>
       <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" t="s">
         <v>22</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>24</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>26</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>46</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="16" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -1164,33 +1221,36 @@
         <v>6565656656</v>
       </c>
       <c r="G7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" t="s">
         <v>22</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>24</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>26</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>8787787878</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1199,4 +1259,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8E9F9BC-8612-F64F-BCA3-42FC600A07DB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestReport/data.xlsx
+++ b/TestReport/data.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="76">
   <si>
     <t>https://stanfordcard--sit.lightning.force.com/lightning/page/home</t>
   </si>
